--- a/weekly/2025-CW05_weight_tracking.xlsx
+++ b/weekly/2025-CW05_weight_tracking.xlsx
@@ -618,11 +618,15 @@
       <c r="B8" t="n">
         <v>101.3</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>101.7</v>
+      </c>
       <c r="D8" t="n">
         <v>29.7</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>27.6</v>
+      </c>
       <c r="F8" t="n">
         <v>5</v>
       </c>

--- a/weekly/2025-CW05_weight_tracking.xlsx
+++ b/weekly/2025-CW05_weight_tracking.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -487,17 +487,15 @@
         <v>102.6</v>
       </c>
       <c r="C2" t="n">
-        <v>102.6</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
         <v>30.2</v>
       </c>
       <c r="E2" t="n">
-        <v>30.2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
+        <v>29.3</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
     </row>
@@ -505,21 +503,15 @@
       <c r="A3" s="2" t="n">
         <v>45913</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>102.9</v>
       </c>
-      <c r="C3" t="n">
-        <v>102.7</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>29.2</v>
       </c>
-      <c r="E3" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
     </row>
@@ -531,17 +523,15 @@
         <v>101.4</v>
       </c>
       <c r="C4" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="D4" t="n">
         <v>29.3</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
-      </c>
+        <v>28.3</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
     </row>
@@ -552,18 +542,12 @@
       <c r="B5" t="n">
         <v>102</v>
       </c>
-      <c r="C5" t="n">
-        <v>102.6</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>29.3</v>
       </c>
-      <c r="E5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
     </row>
@@ -575,17 +559,15 @@
         <v>102.2</v>
       </c>
       <c r="C6" t="n">
-        <v>102.7</v>
+        <v>102.65</v>
       </c>
       <c r="D6" t="n">
         <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>26.3</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+        <v>26.9</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
     </row>
@@ -605,9 +587,7 @@
       <c r="E7" t="n">
         <v>27.7</v>
       </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
     </row>
@@ -618,18 +598,12 @@
       <c r="B8" t="n">
         <v>101.3</v>
       </c>
-      <c r="C8" t="n">
-        <v>101.7</v>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>29.7</v>
       </c>
-      <c r="E8" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
     </row>

--- a/weekly/2025-CW05_weight_tracking.xlsx
+++ b/weekly/2025-CW05_weight_tracking.xlsx
@@ -486,15 +486,11 @@
       <c r="B2" t="n">
         <v>102.6</v>
       </c>
-      <c r="C2" t="n">
-        <v>103</v>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
         <v>30.2</v>
       </c>
-      <c r="E2" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -505,11 +501,11 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -523,13 +519,13 @@
         <v>101.4</v>
       </c>
       <c r="C4" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="D4" t="n">
         <v>29.3</v>
       </c>
       <c r="E4" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -542,11 +538,15 @@
       <c r="B5" t="n">
         <v>102</v>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>102.6</v>
+      </c>
       <c r="D5" t="n">
         <v>29.3</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>27.5</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -559,13 +559,13 @@
         <v>102.2</v>
       </c>
       <c r="C6" t="n">
-        <v>102.65</v>
+        <v>102.7</v>
       </c>
       <c r="D6" t="n">
         <v>29.5</v>
       </c>
       <c r="E6" t="n">
-        <v>26.9</v>
+        <v>26.3</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -598,11 +598,15 @@
       <c r="B8" t="n">
         <v>101.3</v>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>101.7</v>
+      </c>
       <c r="D8" t="n">
         <v>29.7</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>27.6</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
